--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.28217</v>
+        <v>0.1427386666666667</v>
       </c>
       <c r="H2">
-        <v>0.84651</v>
+        <v>0.428216</v>
       </c>
       <c r="I2">
-        <v>0.005448693042781856</v>
+        <v>0.001645492988648044</v>
       </c>
       <c r="J2">
-        <v>0.005502888761448157</v>
+        <v>0.001657527388465106</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N2">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O2">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P2">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q2">
-        <v>2.388465305496667</v>
+        <v>1.336537597175111</v>
       </c>
       <c r="R2">
-        <v>21.49618774947</v>
+        <v>12.028838374576</v>
       </c>
       <c r="S2">
-        <v>0.0002512103655006039</v>
+        <v>6.871156867759609E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002661493440120621</v>
+        <v>7.167192221390288E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.28217</v>
+        <v>0.1427386666666667</v>
       </c>
       <c r="H3">
-        <v>0.84651</v>
+        <v>0.428216</v>
       </c>
       <c r="I3">
-        <v>0.005448693042781856</v>
+        <v>0.001645492988648044</v>
       </c>
       <c r="J3">
-        <v>0.005502888761448157</v>
+        <v>0.001657527388465106</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>117.67466</v>
       </c>
       <c r="O3">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P3">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q3">
-        <v>11.06808627073333</v>
+        <v>5.598908022951111</v>
       </c>
       <c r="R3">
-        <v>99.6127764366</v>
+        <v>50.39017220656</v>
       </c>
       <c r="S3">
-        <v>0.001164102317527684</v>
+        <v>0.0002878405769891297</v>
       </c>
       <c r="T3">
-        <v>0.001233329156444261</v>
+        <v>0.0003002418346868046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.28217</v>
+        <v>0.1427386666666667</v>
       </c>
       <c r="H4">
-        <v>0.84651</v>
+        <v>0.428216</v>
       </c>
       <c r="I4">
-        <v>0.005448693042781856</v>
+        <v>0.001645492988648044</v>
       </c>
       <c r="J4">
-        <v>0.005502888761448157</v>
+        <v>0.001657527388465106</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N4">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O4">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P4">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q4">
-        <v>15.59571554823333</v>
+        <v>10.17511657532</v>
       </c>
       <c r="R4">
-        <v>140.3614399341</v>
+        <v>91.57604917787999</v>
       </c>
       <c r="S4">
-        <v>0.00164030241264085</v>
+        <v>0.0005231040434966868</v>
       </c>
       <c r="T4">
-        <v>0.001737847919753596</v>
+        <v>0.00054564133866874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.28217</v>
+        <v>0.1427386666666667</v>
       </c>
       <c r="H5">
-        <v>0.84651</v>
+        <v>0.428216</v>
       </c>
       <c r="I5">
-        <v>0.005448693042781856</v>
+        <v>0.001645492988648044</v>
       </c>
       <c r="J5">
-        <v>0.005502888761448157</v>
+        <v>0.001657527388465106</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N5">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O5">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P5">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q5">
-        <v>7.264412050105</v>
+        <v>3.292842940339999</v>
       </c>
       <c r="R5">
-        <v>43.58647230063001</v>
+        <v>19.75705764204</v>
       </c>
       <c r="S5">
-        <v>0.0007640452645697498</v>
+        <v>0.0001692854763816012</v>
       </c>
       <c r="T5">
-        <v>0.0005396543399142301</v>
+        <v>0.0001177192887958975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.28217</v>
+        <v>0.1427386666666667</v>
       </c>
       <c r="H6">
-        <v>0.84651</v>
+        <v>0.428216</v>
       </c>
       <c r="I6">
-        <v>0.005448693042781856</v>
+        <v>0.001645492988648044</v>
       </c>
       <c r="J6">
-        <v>0.005502888761448157</v>
+        <v>0.001657527388465106</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N6">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O6">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P6">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q6">
-        <v>15.48856487677333</v>
+        <v>11.60377047586933</v>
       </c>
       <c r="R6">
-        <v>139.39708389096</v>
+        <v>104.433934282824</v>
       </c>
       <c r="S6">
-        <v>0.001629032682542968</v>
+        <v>0.0005965513231030304</v>
       </c>
       <c r="T6">
-        <v>0.001725908001324008</v>
+        <v>0.0006222530040997613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>12.78884966666667</v>
       </c>
       <c r="H7">
-        <v>38.36654900000001</v>
+        <v>38.366549</v>
       </c>
       <c r="I7">
-        <v>0.2469522493672245</v>
+        <v>0.1474300058337887</v>
       </c>
       <c r="J7">
-        <v>0.2494085732095901</v>
+        <v>0.1485082429624034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N7">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O7">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P7">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q7">
-        <v>108.2529103946059</v>
+        <v>119.7487604675238</v>
       </c>
       <c r="R7">
-        <v>974.2761935514533</v>
+        <v>1077.738844207714</v>
       </c>
       <c r="S7">
-        <v>0.01138565970548113</v>
+        <v>0.006156299079286752</v>
       </c>
       <c r="T7">
-        <v>0.01206274213932102</v>
+        <v>0.006421535663179081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>12.78884966666667</v>
       </c>
       <c r="H8">
-        <v>38.36654900000001</v>
+        <v>38.366549</v>
       </c>
       <c r="I8">
-        <v>0.2469522493672245</v>
+        <v>0.1474300058337887</v>
       </c>
       <c r="J8">
-        <v>0.2494085732095901</v>
+        <v>0.1485082429624034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>117.67466</v>
       </c>
       <c r="O8">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P8">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q8">
-        <v>501.6411787720379</v>
+        <v>501.6411787720378</v>
       </c>
       <c r="R8">
-        <v>4514.770608948341</v>
+        <v>4514.77060894834</v>
       </c>
       <c r="S8">
-        <v>0.05276085174001424</v>
+        <v>0.02578943710940675</v>
       </c>
       <c r="T8">
-        <v>0.05589843417543492</v>
+        <v>0.02690054332944399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>12.78884966666667</v>
       </c>
       <c r="H9">
-        <v>38.36654900000001</v>
+        <v>38.366549</v>
       </c>
       <c r="I9">
-        <v>0.2469522493672245</v>
+        <v>0.1474300058337887</v>
       </c>
       <c r="J9">
-        <v>0.2494085732095901</v>
+        <v>0.1485082429624034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N9">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O9">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P9">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q9">
-        <v>706.8478633109546</v>
+        <v>911.652317213105</v>
       </c>
       <c r="R9">
-        <v>6361.630769798591</v>
+        <v>8204.870854917945</v>
       </c>
       <c r="S9">
-        <v>0.0743437678106619</v>
+        <v>0.04686816213526297</v>
       </c>
       <c r="T9">
-        <v>0.07876484314157473</v>
+        <v>0.04888741933150514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>12.78884966666667</v>
       </c>
       <c r="H10">
-        <v>38.36654900000001</v>
+        <v>38.366549</v>
       </c>
       <c r="I10">
-        <v>0.2469522493672245</v>
+        <v>0.1474300058337887</v>
       </c>
       <c r="J10">
-        <v>0.2494085732095901</v>
+        <v>0.1485082429624034</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N10">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O10">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P10">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q10">
-        <v>329.2464600259229</v>
+        <v>295.0263885979475</v>
       </c>
       <c r="R10">
-        <v>1975.478760155537</v>
+        <v>1770.158331587685</v>
       </c>
       <c r="S10">
-        <v>0.0346289826243438</v>
+        <v>0.01516734434160108</v>
       </c>
       <c r="T10">
-        <v>0.02445886602093533</v>
+        <v>0.01054720716141609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>12.78884966666667</v>
       </c>
       <c r="H11">
-        <v>38.36654900000001</v>
+        <v>38.366549</v>
       </c>
       <c r="I11">
-        <v>0.2469522493672245</v>
+        <v>0.1474300058337887</v>
       </c>
       <c r="J11">
-        <v>0.2494085732095901</v>
+        <v>0.1485082429624034</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N11">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O11">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P11">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q11">
-        <v>701.9914511162339</v>
+        <v>1039.654353287112</v>
       </c>
       <c r="R11">
-        <v>6317.923060046105</v>
+        <v>9356.88917958401</v>
       </c>
       <c r="S11">
-        <v>0.07383298748672343</v>
+        <v>0.05344876316823111</v>
       </c>
       <c r="T11">
-        <v>0.07822368773232405</v>
+        <v>0.05575153747685909</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.044498</v>
+        <v>33.975493</v>
       </c>
       <c r="H12">
-        <v>51.133494</v>
+        <v>101.926479</v>
       </c>
       <c r="I12">
-        <v>0.3291286730350826</v>
+        <v>0.3916698735032837</v>
       </c>
       <c r="J12">
-        <v>0.3324023690992153</v>
+        <v>0.3945343717944063</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N12">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O12">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P12">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q12">
-        <v>144.2754088762354</v>
+        <v>318.1305026696327</v>
       </c>
       <c r="R12">
-        <v>1298.478679886118</v>
+        <v>2863.174524026694</v>
       </c>
       <c r="S12">
-        <v>0.01517437917692991</v>
+        <v>0.01635512979868584</v>
       </c>
       <c r="T12">
-        <v>0.01607676918777654</v>
+        <v>0.01705977047664031</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.044498</v>
+        <v>33.975493</v>
       </c>
       <c r="H13">
-        <v>51.133494</v>
+        <v>101.926479</v>
       </c>
       <c r="I13">
-        <v>0.3291286730350826</v>
+        <v>0.3916698735032837</v>
       </c>
       <c r="J13">
-        <v>0.3324023690992153</v>
+        <v>0.3945343717944063</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>117.67466</v>
       </c>
       <c r="O13">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P13">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q13">
-        <v>668.5685023402267</v>
+        <v>1332.684862369127</v>
       </c>
       <c r="R13">
-        <v>6017.11652106204</v>
+        <v>11994.16376132214</v>
       </c>
       <c r="S13">
-        <v>0.07031767949426224</v>
+        <v>0.06851349908884866</v>
       </c>
       <c r="T13">
-        <v>0.07449933139722824</v>
+        <v>0.07146531904021816</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.044498</v>
+        <v>33.975493</v>
       </c>
       <c r="H14">
-        <v>51.133494</v>
+        <v>101.926479</v>
       </c>
       <c r="I14">
-        <v>0.3291286730350826</v>
+        <v>0.3916698735032837</v>
       </c>
       <c r="J14">
-        <v>0.3324023690992153</v>
+        <v>0.3945343717944063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N14">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O14">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P14">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q14">
-        <v>942.0602561237267</v>
+        <v>2421.940810097955</v>
       </c>
       <c r="R14">
-        <v>8478.54230511354</v>
+        <v>21797.4672908816</v>
       </c>
       <c r="S14">
-        <v>0.09908257855779191</v>
+        <v>0.1245122865663126</v>
       </c>
       <c r="T14">
-        <v>0.1049748215350474</v>
+        <v>0.1298767454914137</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.044498</v>
+        <v>33.975493</v>
       </c>
       <c r="H15">
-        <v>51.133494</v>
+        <v>101.926479</v>
       </c>
       <c r="I15">
-        <v>0.3291286730350826</v>
+        <v>0.3916698735032837</v>
       </c>
       <c r="J15">
-        <v>0.3324023690992153</v>
+        <v>0.3945343717944063</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N15">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O15">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P15">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q15">
-        <v>438.8073028996371</v>
+        <v>783.7817522205224</v>
       </c>
       <c r="R15">
-        <v>2632.843817397822</v>
+        <v>4702.690513323135</v>
       </c>
       <c r="S15">
-        <v>0.04615220605971071</v>
+        <v>0.04029432004739262</v>
       </c>
       <c r="T15">
-        <v>0.03259785702718012</v>
+        <v>0.02802023422139756</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.044498</v>
+        <v>33.975493</v>
       </c>
       <c r="H16">
-        <v>51.133494</v>
+        <v>101.926479</v>
       </c>
       <c r="I16">
-        <v>0.3291286730350826</v>
+        <v>0.3916698735032837</v>
       </c>
       <c r="J16">
-        <v>0.3324023690992153</v>
+        <v>0.3945343717944063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N16">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O16">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P16">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q16">
-        <v>935.5878125422026</v>
+        <v>2761.997374524809</v>
       </c>
       <c r="R16">
-        <v>8420.290312879824</v>
+        <v>24857.97637072328</v>
       </c>
       <c r="S16">
-        <v>0.09840182974638785</v>
+        <v>0.1419946380020439</v>
       </c>
       <c r="T16">
-        <v>0.104253589951983</v>
+        <v>0.1481123025647366</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.5300795</v>
+        <v>1.889429</v>
       </c>
       <c r="H17">
-        <v>3.060159000000001</v>
+        <v>3.778858</v>
       </c>
       <c r="I17">
-        <v>0.02954578277830082</v>
+        <v>0.02178135921157747</v>
       </c>
       <c r="J17">
-        <v>0.01989310766481723</v>
+        <v>0.01462710555448763</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N17">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O17">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P17">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q17">
-        <v>12.9515604082705</v>
+        <v>17.69172260513133</v>
       </c>
       <c r="R17">
-        <v>77.70936244962301</v>
+        <v>106.150335630788</v>
       </c>
       <c r="S17">
-        <v>0.001362199491228626</v>
+        <v>0.0009095337200964586</v>
       </c>
       <c r="T17">
-        <v>0.0009621378488412521</v>
+        <v>0.0006324799088156084</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.5300795</v>
+        <v>1.889429</v>
       </c>
       <c r="H18">
-        <v>3.060159000000001</v>
+        <v>3.778858</v>
       </c>
       <c r="I18">
-        <v>0.02954578277830082</v>
+        <v>0.02178135921157747</v>
       </c>
       <c r="J18">
-        <v>0.01989310766481723</v>
+        <v>0.01462710555448763</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>117.67466</v>
       </c>
       <c r="O18">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P18">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q18">
-        <v>60.01719497849002</v>
+        <v>74.11263838971333</v>
       </c>
       <c r="R18">
-        <v>360.1031698709401</v>
+        <v>444.67583033828</v>
       </c>
       <c r="S18">
-        <v>0.006312397107954781</v>
+        <v>0.003810140211061668</v>
       </c>
       <c r="T18">
-        <v>0.00445852183442052</v>
+        <v>0.002649530281308753</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.5300795</v>
+        <v>1.889429</v>
       </c>
       <c r="H19">
-        <v>3.060159000000001</v>
+        <v>3.778858</v>
       </c>
       <c r="I19">
-        <v>0.02954578277830082</v>
+        <v>0.02178135921157747</v>
       </c>
       <c r="J19">
-        <v>0.01989310766481723</v>
+        <v>0.01462710555448763</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N19">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O19">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P19">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q19">
-        <v>84.56846811561502</v>
+        <v>134.687823452115</v>
       </c>
       <c r="R19">
-        <v>507.4108086936901</v>
+        <v>808.1269407126899</v>
       </c>
       <c r="S19">
-        <v>0.008894613514485261</v>
+        <v>0.006924318216506867</v>
       </c>
       <c r="T19">
-        <v>0.006282372272347929</v>
+        <v>0.004815095974365921</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.5300795</v>
+        <v>1.889429</v>
       </c>
       <c r="H20">
-        <v>3.060159000000001</v>
+        <v>3.778858</v>
       </c>
       <c r="I20">
-        <v>0.02954578277830082</v>
+        <v>0.02178135921157747</v>
       </c>
       <c r="J20">
-        <v>0.01989310766481723</v>
+        <v>0.01462710555448763</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N20">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O20">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P20">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q20">
-        <v>39.39160065711676</v>
+        <v>43.5872990074425</v>
       </c>
       <c r="R20">
-        <v>157.566402628467</v>
+        <v>174.34919602977</v>
       </c>
       <c r="S20">
-        <v>0.004143069767835882</v>
+        <v>0.002240828612341989</v>
       </c>
       <c r="T20">
-        <v>0.001950866599541164</v>
+        <v>0.001038831982505762</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.5300795</v>
+        <v>1.889429</v>
       </c>
       <c r="H21">
-        <v>3.060159000000001</v>
+        <v>3.778858</v>
       </c>
       <c r="I21">
-        <v>0.02954578277830082</v>
+        <v>0.02178135921157747</v>
       </c>
       <c r="J21">
-        <v>0.01989310766481723</v>
+        <v>0.01462710555448763</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N21">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O21">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P21">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q21">
-        <v>83.98743878644402</v>
+        <v>153.598887802777</v>
       </c>
       <c r="R21">
-        <v>503.9246327186641</v>
+        <v>921.5933268166619</v>
       </c>
       <c r="S21">
-        <v>0.008833502896796273</v>
+        <v>0.007896538451570486</v>
       </c>
       <c r="T21">
-        <v>0.006239209109666367</v>
+        <v>0.005491167407491583</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.14113366666666</v>
+        <v>37.948719</v>
       </c>
       <c r="H22">
-        <v>60.423401</v>
+        <v>113.846157</v>
       </c>
       <c r="I22">
-        <v>0.3889246017766101</v>
+        <v>0.4374732684627022</v>
       </c>
       <c r="J22">
-        <v>0.3927930612649294</v>
+        <v>0.4406727523002374</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N22">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O22">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P22">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q22">
-        <v>170.4872912648552</v>
+        <v>355.3339182197781</v>
       </c>
       <c r="R22">
-        <v>1534.385621383697</v>
+        <v>3198.005263978002</v>
       </c>
       <c r="S22">
-        <v>0.01793125261367209</v>
+        <v>0.01826776214664069</v>
       </c>
       <c r="T22">
-        <v>0.01899758837949674</v>
+        <v>0.01905480623997182</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.14113366666666</v>
+        <v>37.948719</v>
       </c>
       <c r="H23">
-        <v>60.423401</v>
+        <v>113.846157</v>
       </c>
       <c r="I23">
-        <v>0.3889246017766101</v>
+        <v>0.4374732684627022</v>
       </c>
       <c r="J23">
-        <v>0.3927930612649294</v>
+        <v>0.4406727523002374</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>117.67466</v>
       </c>
       <c r="O23">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P23">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q23">
-        <v>790.0336854131845</v>
+        <v>1488.53420192018</v>
       </c>
       <c r="R23">
-        <v>7110.30316871866</v>
+        <v>13396.80781728162</v>
       </c>
       <c r="S23">
-        <v>0.08309295948896596</v>
+        <v>0.07652573355240126</v>
       </c>
       <c r="T23">
-        <v>0.08803433176787434</v>
+        <v>0.07982275078400154</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.14113366666666</v>
+        <v>37.948719</v>
       </c>
       <c r="H24">
-        <v>60.423401</v>
+        <v>113.846157</v>
       </c>
       <c r="I24">
-        <v>0.3889246017766101</v>
+        <v>0.4374732684627022</v>
       </c>
       <c r="J24">
-        <v>0.3927930612649294</v>
+        <v>0.4406727523002374</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N24">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O24">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P24">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q24">
-        <v>1113.213280945101</v>
+        <v>2705.171967248265</v>
       </c>
       <c r="R24">
-        <v>10018.91952850591</v>
+        <v>24346.54770523438</v>
       </c>
       <c r="S24">
-        <v>0.1170838506813452</v>
+        <v>0.1390732365517838</v>
       </c>
       <c r="T24">
-        <v>0.1240465933447772</v>
+        <v>0.1450650361214236</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.14113366666666</v>
+        <v>37.948719</v>
       </c>
       <c r="H25">
-        <v>60.423401</v>
+        <v>113.846157</v>
       </c>
       <c r="I25">
-        <v>0.3889246017766101</v>
+        <v>0.4374732684627022</v>
       </c>
       <c r="J25">
-        <v>0.3927930612649294</v>
+        <v>0.4406727523002374</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N25">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O25">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P25">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q25">
-        <v>518.5295889389688</v>
+        <v>875.4402319443675</v>
       </c>
       <c r="R25">
-        <v>3111.177533633813</v>
+        <v>5252.641391666205</v>
       </c>
       <c r="S25">
-        <v>0.05453711521807077</v>
+        <v>0.04500649420376533</v>
       </c>
       <c r="T25">
-        <v>0.0385202189956738</v>
+        <v>0.03129702914927533</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.14113366666666</v>
+        <v>37.948719</v>
       </c>
       <c r="H26">
-        <v>60.423401</v>
+        <v>113.846157</v>
       </c>
       <c r="I26">
-        <v>0.3889246017766101</v>
+        <v>0.4374732684627022</v>
       </c>
       <c r="J26">
-        <v>0.3927930612649294</v>
+        <v>0.4406727523002374</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N26">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O26">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P26">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q26">
-        <v>1105.564927128788</v>
+        <v>3084.996065975547</v>
       </c>
       <c r="R26">
-        <v>9950.084344159095</v>
+        <v>27764.96459377993</v>
       </c>
       <c r="S26">
-        <v>0.1162794237745561</v>
+        <v>0.1586000420081112</v>
       </c>
       <c r="T26">
-        <v>0.1231943287771073</v>
+        <v>0.1654331300055651</v>
       </c>
     </row>
   </sheetData>
